--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayuan/python/algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86F98AC2-DB3A-F946-9FB0-56D884FB2582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0101C886-0A49-B746-A45F-1DAD93A76589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20860" yWindow="1400" windowWidth="28040" windowHeight="17440" xr2:uid="{570D1991-EE86-4E4C-8216-6F523F210381}"/>
+    <workbookView minimized="1" xWindow="240" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{570D1991-EE86-4E4C-8216-6F523F210381}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>日期</t>
   </si>
@@ -56,11 +56,35 @@
   <si>
     <t>https://leetcode.com/problems/two-sum/</t>
   </si>
+  <si>
+    <t>product of Array Except Self</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/product-of-array-except-self/</t>
+  </si>
+  <si>
+    <t>数据结构</t>
+  </si>
+  <si>
+    <t>难度</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>stack（list）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -113,11 +137,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -134,6 +170,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>480598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA7669A-A36F-B245-A44D-C94DE229A65B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13690600" y="4163598"/>
+          <a:ext cx="5943600" cy="2511269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,200 +518,966 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324A5D05-617C-AB45-8155-5AC71BB80EB4}">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.1640625" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="7"/>
+    <col min="7" max="7" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2">
+    <row r="5" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
         <v>121</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>44622</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>44622</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>44623</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>238</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>44623</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{D3F2EB46-CAC7-DF41-A13F-40E7A646D41E}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{D3F2EB46-CAC7-DF41-A13F-40E7A646D41E}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{70494BB1-0ABB-CB41-868D-2BC6DD4D93F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayuan/python/algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0101C886-0A49-B746-A45F-1DAD93A76589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F757E36-9289-DD4A-872C-D5B06BAD2673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{570D1991-EE86-4E4C-8216-6F523F210381}"/>
+    <workbookView minimized="1" xWindow="11660" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{570D1991-EE86-4E4C-8216-6F523F210381}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>日期</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>stack（list）</t>
+  </si>
+  <si>
+    <t>linked list cycle</t>
+  </si>
+  <si>
+    <t>hashset linklist</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle-ii/</t>
+  </si>
+  <si>
+    <t>reverselinkedlist</t>
   </si>
 </sst>
 </file>
@@ -83,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -141,7 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -520,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324A5D05-617C-AB45-8155-5AC71BB80EB4}">
   <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,17 +666,36 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="3">
+        <v>44627</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>141</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
+      <c r="A11" s="3">
+        <v>44627</v>
+      </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1">
+        <v>206</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
@@ -1476,8 +1507,9 @@
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{D3F2EB46-CAC7-DF41-A13F-40E7A646D41E}"/>
     <hyperlink ref="F8" r:id="rId2" xr:uid="{70494BB1-0ABB-CB41-868D-2BC6DD4D93F0}"/>
+    <hyperlink ref="F10" r:id="rId3" xr:uid="{367DEF96-8AAB-8944-A14B-C802EE7E7A38}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>